--- a/biology/Zoologie/Gallicolombe_de_Jobi/Gallicolombe_de_Jobi.xlsx
+++ b/biology/Zoologie/Gallicolombe_de_Jobi/Gallicolombe_de_Jobi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alopecoenas jobiensis
 La Gallicolombe de Jobi (Alopecoenas jobiensis, syn. :  Pampusana jobiensis et Gallicolumba jobiensis) est une espèce d'oiseaux de la famille des columbidés.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gallicolombe de Jobi mesure environ 25 cm. Le dimorphisme sexuel est peu visible, le plumage des mâles est légèrement plus brillant.  
 La tête est bleu-gris foncé. Une bande blanche s'étend de la partie supérieure du bec jusqu'à la nuque, en passant par l'œil. La poitrine et la gorge sont blanches. Le dos et la nuque sont gris. Les ailes sont violet-rougeâtre. Le ventre et les plumes de la queue sont gris foncé. Le bec est noir. Les pattes sont rouges et l'iris est brun. 
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire s'étend à travers la Mélanésie.
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fréquente les forêts humides tropicales et subtropicales.
 </t>
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon Alan P. Peterson, il en existe deux sous-espèces:
 Alopecoenas jobiensis chalconota Mayr 1935
